--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32593.4061233518</v>
+        <v>6486087.818547009</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32593.4061233518</v>
+        <v>6486087.818547009</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15712.12894002418</v>
+        <v>942727.7364014508</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15712.12894002418</v>
+        <v>942727.7364014508</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265625771.77776</v>
+        <v>50977509.6348979</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11093.42145199841</v>
+        <v>1165619.44476159</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21422.47429597741</v>
+        <v>2204605.50303598</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31751.5271399564</v>
+        <v>3243591.561310372</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42620.89148349702</v>
+        <v>4248010.935916711</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53490.25582703761</v>
+        <v>5252430.310523049</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64359.6201705782</v>
+        <v>6256849.685129385</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75228.98451411878</v>
+        <v>7261269.059735718</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86098.34885765938</v>
+        <v>8265688.434342051</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96967.71320119999</v>
+        <v>9270107.808948385</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107837.0775447406</v>
+        <v>10274527.18355472</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118303.2170590864</v>
+        <v>11313531.22432333</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128769.2662091396</v>
+        <v>12352517.28259773</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139235.3153591929</v>
+        <v>13391503.34087213</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150104.5893384409</v>
+        <v>14395904.73298424</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160973.9536819815</v>
+        <v>15400324.10759059</v>
       </c>
     </row>
   </sheetData>
